--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1818.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1818.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.245307856598252</v>
+        <v>1.016143202781677</v>
       </c>
       <c r="B1">
-        <v>2.274966506503795</v>
+        <v>1.142959356307983</v>
       </c>
       <c r="C1">
-        <v>2.936952410942712</v>
+        <v>5.500528812408447</v>
       </c>
       <c r="D1">
-        <v>3.400719378450946</v>
+        <v>1.626428484916687</v>
       </c>
       <c r="E1">
-        <v>1.770842381570048</v>
+        <v>0.9922494888305664</v>
       </c>
     </row>
   </sheetData>
